--- a/프로젝트 산출물/모델링 및 평가/모델_테스트 계획 및 결과 보고서.xlsx
+++ b/프로젝트 산출물/모델링 및 평가/모델_테스트 계획 및 결과 보고서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TailorLink\SKN03-FINAL-6Team\프로젝트 산출물\모델링 및 평가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB36899-2566-4A66-B75B-67945BE38917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E8D3B7-FF41-46F5-8A8A-C6BCD67034ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>테스트 계획서</t>
   </si>
@@ -117,9 +117,6 @@
     <t>질문과 생성된 답변으로 점수 측정</t>
   </si>
   <si>
-    <t>비정상 작동</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2738,7 +2735,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>확인</t>
+      <t>확인
+- 일정 점수 이하일 경우 질문 쿼리 재작성 확인"</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2986,8 +2984,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3001,21 +3014,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3239,7 +3237,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1"/>
@@ -3254,54 +3252,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="2">
@@ -3316,8 +3314,8 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>30</v>
+      <c r="E5" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -3339,8 +3337,8 @@
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>31</v>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -3362,8 +3360,8 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>32</v>
+      <c r="E7" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -3385,8 +3383,8 @@
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>33</v>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
@@ -3408,8 +3406,8 @@
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>34</v>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
@@ -3431,8 +3429,8 @@
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>35</v>
+      <c r="E10" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -3454,8 +3452,8 @@
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>30</v>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>11</v>
@@ -3475,8 +3473,8 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>36</v>
+      <c r="E12" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -3498,8 +3496,8 @@
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>37</v>
+      <c r="E13" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
@@ -3508,7 +3506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -3521,11 +3519,11 @@
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>38</v>
+      <c r="E14" s="16" t="s">
+        <v>37</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>29</v>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
